--- a/quickshift/src/datafiles/PA2025-1.xlsx
+++ b/quickshift/src/datafiles/PA2025-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14863" windowHeight="8358"/>
+    <workbookView windowWidth="14400" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="207">
   <si>
     <t>Id. Ramo</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Código Asignatura</t>
   </si>
   <si>
-    <t>Denominación Asignatura</t>
+    <t>Nombre</t>
   </si>
   <si>
     <t>Est. Total</t>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Porcentaje Reprobado</t>
+  </si>
+  <si>
+    <t>Electivo</t>
   </si>
   <si>
     <t>20001414</t>
@@ -639,10 +642,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -666,14 +669,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -681,9 +676,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +723,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,14 +770,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -728,17 +777,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,50 +793,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -804,14 +807,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,7 +835,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,163 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,7 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,17 +1059,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1088,15 +1109,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1107,25 +1119,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,152 +1144,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1304,6 +1307,9 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1357,6 +1363,181 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <alignment vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="right" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="top"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <alignment vertical="top"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1364,6 +1545,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K66" totalsRowShown="0">
+  <autoFilter ref="A1:K66"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Id. Ramo" dataDxfId="0"/>
+    <tableColumn id="2" name="Año académico" dataDxfId="1"/>
+    <tableColumn id="3" name="Período académico" dataDxfId="2"/>
+    <tableColumn id="4" name="Código Asignatura" dataDxfId="3"/>
+    <tableColumn id="5" name="Nombre" dataDxfId="4"/>
+    <tableColumn id="6" name="Est. Total" dataDxfId="5"/>
+    <tableColumn id="7" name="Est. Aprobados" dataDxfId="6"/>
+    <tableColumn id="8" name="Est. Reprobados" dataDxfId="7"/>
+    <tableColumn id="9" name="Porcentaje Aprobado" dataDxfId="8"/>
+    <tableColumn id="10" name="Porcentaje Reprobado" dataDxfId="9"/>
+    <tableColumn id="11" name="Electivo" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1564,28 +1765,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6293103448276" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="8.56896551724138" customWidth="1"/>
-    <col min="7" max="7" width="5.85344827586207" customWidth="1"/>
-    <col min="8" max="8" width="10.4137931034483" customWidth="1"/>
+    <col min="6" max="6" width="8.57142857142857" customWidth="1"/>
+    <col min="7" max="7" width="5.85714285714286" customWidth="1"/>
+    <col min="8" max="8" width="10.4095238095238" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="26" width="8.62931034482759" customWidth="1"/>
+    <col min="11" max="26" width="8.62857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" spans="1:10">
+    <row r="1" ht="12.75" customHeight="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,22 +1817,25 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4">
         <v>223</v>
@@ -1648,22 +1852,25 @@
       <c r="J2" s="5">
         <v>23.32</v>
       </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" spans="1:11">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="4">
         <v>440</v>
@@ -1680,22 +1887,25 @@
       <c r="J3" s="5">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4">
         <v>195</v>
@@ -1712,22 +1922,25 @@
       <c r="J4" s="5">
         <v>13.85</v>
       </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5" s="4">
         <v>797</v>
@@ -1744,22 +1957,25 @@
       <c r="J5" s="5">
         <v>26.85</v>
       </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="4">
         <v>791</v>
@@ -1776,22 +1992,25 @@
       <c r="J6" s="5">
         <v>31.23</v>
       </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4">
         <v>181</v>
@@ -1808,22 +2027,25 @@
       <c r="J7" s="5">
         <v>30.94</v>
       </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K7" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4">
         <v>192</v>
@@ -1840,22 +2062,25 @@
       <c r="J8" s="5">
         <v>46.88</v>
       </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4">
         <v>515</v>
@@ -1872,22 +2097,25 @@
       <c r="J9" s="5">
         <v>24.08</v>
       </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="4">
         <v>509</v>
@@ -1904,22 +2132,25 @@
       <c r="J10" s="5">
         <v>14.73</v>
       </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="4">
         <v>777</v>
@@ -1936,22 +2167,25 @@
       <c r="J11" s="5">
         <v>11.84</v>
       </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4">
         <v>366</v>
@@ -1968,22 +2202,25 @@
       <c r="J12" s="5">
         <v>24.59</v>
       </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K12" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4">
         <v>25</v>
@@ -2000,22 +2237,25 @@
       <c r="J13" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F14" s="4">
         <v>81</v>
@@ -2032,22 +2272,25 @@
       <c r="J14" s="5">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K14" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4">
         <v>353</v>
@@ -2064,22 +2307,25 @@
       <c r="J15" s="5">
         <v>33.99</v>
       </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4">
         <v>790</v>
@@ -2096,22 +2342,25 @@
       <c r="J16" s="5">
         <v>22.91</v>
       </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1" spans="1:11">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="4">
         <v>197</v>
@@ -2128,22 +2377,25 @@
       <c r="J17" s="5">
         <v>44.16</v>
       </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1" spans="1:11">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -2160,22 +2412,25 @@
       <c r="J18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1" spans="1:11">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4">
         <v>27</v>
@@ -2192,22 +2447,25 @@
       <c r="J19" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K19" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1" spans="1:11">
       <c r="A20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F20" s="4">
         <v>19</v>
@@ -2224,22 +2482,25 @@
       <c r="J20" s="5">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K20" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1" spans="1:11">
       <c r="A21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4">
         <v>28</v>
@@ -2256,22 +2517,25 @@
       <c r="J21" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K21" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="4">
         <v>18</v>
@@ -2288,22 +2552,25 @@
       <c r="J22" s="5">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K22" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" s="4">
         <v>31</v>
@@ -2320,22 +2587,25 @@
       <c r="J23" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K23" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F24" s="4">
         <v>19</v>
@@ -2352,22 +2622,25 @@
       <c r="J24" s="5">
         <v>36.84</v>
       </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F25" s="4">
         <v>30</v>
@@ -2384,22 +2657,25 @@
       <c r="J25" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1" spans="1:11">
       <c r="A26" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F26" s="4">
         <v>26</v>
@@ -2416,22 +2692,25 @@
       <c r="J26" s="5">
         <v>7.69</v>
       </c>
-    </row>
-    <row r="27" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K26" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" ht="12.75" customHeight="1" spans="1:11">
       <c r="A27" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F27" s="4">
         <v>5</v>
@@ -2448,22 +2727,25 @@
       <c r="J27" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" ht="12.75" customHeight="1" spans="1:11">
       <c r="A28" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F28" s="4">
         <v>757</v>
@@ -2480,22 +2762,25 @@
       <c r="J28" s="5">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="29" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K28" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" ht="12.75" customHeight="1" spans="1:11">
       <c r="A29" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" s="4">
         <v>4</v>
@@ -2512,22 +2797,25 @@
       <c r="J29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K29" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1" spans="1:11">
       <c r="A30" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30" s="4">
         <v>4</v>
@@ -2544,22 +2832,25 @@
       <c r="J30" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K30" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="12.75" customHeight="1" spans="1:11">
       <c r="A31" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F31" s="4">
         <v>46</v>
@@ -2576,22 +2867,25 @@
       <c r="J31" s="5">
         <v>26.09</v>
       </c>
-    </row>
-    <row r="32" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="12.75" customHeight="1" spans="1:11">
       <c r="A32" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F32" s="4">
         <v>749</v>
@@ -2608,22 +2902,25 @@
       <c r="J32" s="5">
         <v>11.88</v>
       </c>
-    </row>
-    <row r="33" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K32" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="12.75" customHeight="1" spans="1:11">
       <c r="A33" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F33" s="4">
         <v>672</v>
@@ -2640,22 +2937,25 @@
       <c r="J33" s="5">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="34" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K33" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="12.75" customHeight="1" spans="1:11">
       <c r="A34" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F34" s="4">
         <v>1593</v>
@@ -2672,22 +2972,25 @@
       <c r="J34" s="5">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="35" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K34" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" ht="12.75" customHeight="1" spans="1:11">
       <c r="A35" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F35" s="4">
         <v>169</v>
@@ -2704,22 +3007,25 @@
       <c r="J35" s="5">
         <v>17.75</v>
       </c>
-    </row>
-    <row r="36" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K35" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="12.75" customHeight="1" spans="1:11">
       <c r="A36" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" s="4">
         <v>86</v>
@@ -2736,22 +3042,25 @@
       <c r="J36" s="5">
         <v>15.12</v>
       </c>
-    </row>
-    <row r="37" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K36" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" ht="12.75" customHeight="1" spans="1:11">
       <c r="A37" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F37" s="4">
         <v>28</v>
@@ -2768,22 +3077,25 @@
       <c r="J37" s="5">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="38" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K37" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" ht="12.75" customHeight="1" spans="1:11">
       <c r="A38" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F38" s="4">
         <v>61</v>
@@ -2800,22 +3112,25 @@
       <c r="J38" s="5">
         <v>19.67</v>
       </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K38" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1" spans="1:11">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F39" s="4">
         <v>85</v>
@@ -2832,22 +3147,25 @@
       <c r="J39" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K39" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1" spans="1:11">
       <c r="A40" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F40" s="4">
         <v>101</v>
@@ -2864,22 +3182,25 @@
       <c r="J40" s="5">
         <v>2.97</v>
       </c>
-    </row>
-    <row r="41" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" ht="12.75" customHeight="1" spans="1:11">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41" s="4">
         <v>95</v>
@@ -2896,22 +3217,25 @@
       <c r="J41" s="5">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1" spans="1:11">
       <c r="A42" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F42" s="4">
         <v>128</v>
@@ -2928,22 +3252,25 @@
       <c r="J42" s="5">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="43" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1" spans="1:11">
       <c r="A43" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F43" s="4">
         <v>41</v>
@@ -2960,22 +3287,25 @@
       <c r="J43" s="5">
         <v>21.95</v>
       </c>
-    </row>
-    <row r="44" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" ht="12.75" customHeight="1" spans="1:11">
       <c r="A44" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F44" s="4">
         <v>45</v>
@@ -2992,22 +3322,25 @@
       <c r="J44" s="5">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="45" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" ht="12.75" customHeight="1" spans="1:11">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F45" s="4">
         <v>54</v>
@@ -3024,22 +3357,25 @@
       <c r="J45" s="5">
         <v>18.52</v>
       </c>
-    </row>
-    <row r="46" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="12.75" customHeight="1" spans="1:11">
       <c r="A46" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F46" s="4">
         <v>64</v>
@@ -3056,22 +3392,25 @@
       <c r="J46" s="5">
         <v>7.81</v>
       </c>
-    </row>
-    <row r="47" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" ht="12.75" customHeight="1" spans="1:11">
       <c r="A47" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F47" s="4">
         <v>97</v>
@@ -3088,22 +3427,25 @@
       <c r="J47" s="5">
         <v>25.77</v>
       </c>
-    </row>
-    <row r="48" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K47" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" ht="12.75" customHeight="1" spans="1:11">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F48" s="4">
         <v>74</v>
@@ -3120,22 +3462,25 @@
       <c r="J48" s="5">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="49" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" spans="1:11">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F49" s="4">
         <v>103</v>
@@ -3152,22 +3497,25 @@
       <c r="J49" s="5">
         <v>2.91</v>
       </c>
-    </row>
-    <row r="50" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" ht="12.75" customHeight="1" spans="1:11">
       <c r="A50" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50" s="4">
         <v>166</v>
@@ -3184,22 +3532,25 @@
       <c r="J50" s="5">
         <v>13.25</v>
       </c>
-    </row>
-    <row r="51" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1" spans="1:11">
       <c r="A51" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F51" s="4">
         <v>39</v>
@@ -3216,22 +3567,25 @@
       <c r="J51" s="5">
         <v>5.13</v>
       </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K51" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="12.75" customHeight="1" spans="1:11">
       <c r="A52" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F52" s="4">
         <v>37</v>
@@ -3248,22 +3602,25 @@
       <c r="J52" s="5">
         <v>8.11</v>
       </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K52" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1" spans="1:11">
       <c r="A53" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F53" s="4">
         <v>54</v>
@@ -3280,22 +3637,25 @@
       <c r="J53" s="5">
         <v>25.93</v>
       </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K53" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1" spans="1:11">
       <c r="A54" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F54" s="4">
         <v>47</v>
@@ -3312,22 +3672,25 @@
       <c r="J54" s="5">
         <v>2.13</v>
       </c>
-    </row>
-    <row r="55" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K54" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="12.75" customHeight="1" spans="1:11">
       <c r="A55" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F55" s="4">
         <v>70</v>
@@ -3344,22 +3707,25 @@
       <c r="J55" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" spans="1:11">
       <c r="A56" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F56" s="4">
         <v>52</v>
@@ -3376,22 +3742,25 @@
       <c r="J56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K56" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" ht="12.75" customHeight="1" spans="1:11">
       <c r="A57" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F57" s="4">
         <v>50</v>
@@ -3408,22 +3777,25 @@
       <c r="J57" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K57" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" ht="12.75" customHeight="1" spans="1:11">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F58" s="4">
         <v>63</v>
@@ -3440,22 +3812,25 @@
       <c r="J58" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75" customHeight="1" spans="1:11">
       <c r="A59" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F59" s="4">
         <v>32</v>
@@ -3472,22 +3847,25 @@
       <c r="J59" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K59" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" ht="12.75" customHeight="1" spans="1:11">
       <c r="A60" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F60" s="4">
         <v>161</v>
@@ -3504,22 +3882,25 @@
       <c r="J60" s="5">
         <v>4.97</v>
       </c>
-    </row>
-    <row r="61" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K60" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="12.75" customHeight="1" spans="1:11">
       <c r="A61" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F61" s="4">
         <v>26</v>
@@ -3536,22 +3917,25 @@
       <c r="J61" s="5">
         <v>15.38</v>
       </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K61" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75" customHeight="1" spans="1:11">
       <c r="A62" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F62" s="4">
         <v>28</v>
@@ -3568,22 +3952,25 @@
       <c r="J62" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K62" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" ht="12.75" customHeight="1" spans="1:11">
       <c r="A63" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F63" s="4">
         <v>24</v>
@@ -3600,22 +3987,25 @@
       <c r="J63" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K63" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75" customHeight="1" spans="1:11">
       <c r="A64" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F64" s="4">
         <v>49</v>
@@ -3632,22 +4022,25 @@
       <c r="J64" s="5">
         <v>2.04</v>
       </c>
-    </row>
-    <row r="65" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K64" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="12.75" customHeight="1" spans="1:11">
       <c r="A65" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F65" s="4">
         <v>20</v>
@@ -3664,22 +4057,25 @@
       <c r="J65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" ht="12.75" customHeight="1" spans="1:10">
+      <c r="K65" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1" spans="1:11">
       <c r="A66" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F66" s="4">
         <v>29</v>
@@ -3695,6 +4091,9 @@
       </c>
       <c r="J66" s="5">
         <v>0</v>
+      </c>
+      <c r="K66" s="6" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" ht="12.75" customHeight="1"/>
@@ -4635,5 +5034,8 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/quickshift/src/datafiles/PA2025-1.xlsx
+++ b/quickshift/src/datafiles/PA2025-1.xlsx
@@ -642,10 +642,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -676,21 +676,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -699,16 +684,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,7 +707,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,15 +731,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,6 +760,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Arial"/>
@@ -785,7 +784,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -793,13 +799,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,8 +812,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -835,7 +835,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,7 +889,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,37 +937,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,19 +961,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,91 +1009,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,35 +1044,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,6 +1094,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1132,154 +1141,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,7 +1768,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="D1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1"/>
